--- a/image/testreport.xlsx
+++ b/image/testreport.xlsx
@@ -941,44 +941,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.15625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="81.55078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="33.6953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.74609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="33.83984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/testreport.xlsx
+++ b/image/testreport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2293" uniqueCount="253">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -352,10 +352,6 @@
   </si>
   <si>
     <t>TestReport.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Informal name of the executed TestScript</t>
@@ -941,44 +937,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.77734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.15625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="81.55078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="33.6953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.86328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="39.74609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2198,16 +2194,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2275,7 +2271,7 @@
         <v>39</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>39</v>
@@ -2283,7 +2279,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2309,13 +2305,13 @@
         <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2341,57 +2337,57 @@
         <v>39</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2414,13 +2410,13 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2471,7 +2467,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>48</v>
@@ -2497,7 +2493,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2523,13 +2519,13 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2555,14 +2551,14 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>48</v>
@@ -2605,7 +2601,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2628,13 +2624,13 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2685,7 +2681,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>40</v>
@@ -2711,7 +2707,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2734,19 +2730,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>39</v>
@@ -2795,7 +2791,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>40</v>
@@ -2821,7 +2817,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2844,16 +2840,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2903,7 +2899,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>40</v>
@@ -2921,15 +2917,15 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2952,13 +2948,13 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3009,7 +3005,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3021,7 +3017,7 @@
         <v>39</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>39</v>
@@ -3035,7 +3031,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3058,13 +3054,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3115,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3141,7 +3137,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3170,7 +3166,7 @@
         <v>94</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>96</v>
@@ -3223,7 +3219,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
@@ -3249,11 +3245,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3275,10 +3271,10 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>96</v>
@@ -3333,7 +3329,7 @@
         <v>39</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3359,7 +3355,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3385,10 +3381,10 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3415,14 +3411,14 @@
         <v>39</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>39</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -3465,7 +3461,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3491,10 +3487,10 @@
         <v>61</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3545,7 +3541,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>48</v>
@@ -3571,7 +3567,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3594,13 +3590,13 @@
         <v>39</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3651,7 +3647,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -3677,7 +3673,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3700,13 +3696,13 @@
         <v>39</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3757,7 +3753,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>40</v>
@@ -3769,7 +3765,7 @@
         <v>39</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>39</v>
@@ -3783,7 +3779,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3806,13 +3802,13 @@
         <v>39</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3863,7 +3859,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>40</v>
@@ -3889,7 +3885,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3918,7 +3914,7 @@
         <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>96</v>
@@ -3971,7 +3967,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>40</v>
@@ -3997,11 +3993,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4023,10 +4019,10 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>96</v>
@@ -4081,7 +4077,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4107,7 +4103,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4130,16 +4126,16 @@
         <v>39</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4189,7 +4185,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>48</v>
@@ -4201,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>39</v>
@@ -4215,7 +4211,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4238,13 +4234,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4295,7 +4291,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4350,7 +4346,7 @@
         <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>96</v>
@@ -4403,7 +4399,7 @@
         <v>39</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -4429,11 +4425,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4455,10 +4451,10 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>96</v>
@@ -4513,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -4539,7 +4535,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4562,13 +4558,13 @@
         <v>39</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4619,7 +4615,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -4631,7 +4627,7 @@
         <v>39</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>39</v>
@@ -4645,7 +4641,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4668,13 +4664,13 @@
         <v>39</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4725,7 +4721,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
@@ -4751,7 +4747,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4780,7 +4776,7 @@
         <v>94</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>96</v>
@@ -4833,7 +4829,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -4859,11 +4855,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -4885,10 +4881,10 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>96</v>
@@ -4943,7 +4939,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -4969,7 +4965,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4995,10 +4991,10 @@
         <v>67</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5025,14 +5021,14 @@
         <v>39</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>39</v>
       </c>
@@ -5049,7 +5045,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>48</v>
@@ -5075,7 +5071,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5098,13 +5094,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5155,7 +5151,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5181,7 +5177,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5207,10 +5203,10 @@
         <v>61</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5261,7 +5257,7 @@
         <v>39</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5287,7 +5283,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5310,13 +5306,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5367,7 +5363,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -5379,7 +5375,7 @@
         <v>39</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>39</v>
@@ -5393,7 +5389,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5416,13 +5412,13 @@
         <v>39</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5473,7 +5469,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -5499,7 +5495,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5528,7 +5524,7 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>96</v>
@@ -5581,7 +5577,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -5607,11 +5603,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5633,10 +5629,10 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>96</v>
@@ -5691,7 +5687,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -5717,7 +5713,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5743,10 +5739,10 @@
         <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5773,14 +5769,14 @@
         <v>39</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y45" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="Z45" t="s" s="2">
         <v>39</v>
       </c>
@@ -5797,7 +5793,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>48</v>
@@ -5823,7 +5819,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5846,13 +5842,13 @@
         <v>39</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5903,7 +5899,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -5929,7 +5925,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5952,13 +5948,13 @@
         <v>39</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6009,7 +6005,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6035,7 +6031,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6058,13 +6054,13 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6115,7 +6111,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6127,7 +6123,7 @@
         <v>39</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>39</v>
@@ -6141,7 +6137,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6164,13 +6160,13 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6221,7 +6217,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6247,7 +6243,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6276,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>96</v>
@@ -6329,7 +6325,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6355,11 +6351,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6381,10 +6377,10 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>96</v>
@@ -6439,7 +6435,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -6465,7 +6461,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6488,13 +6484,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6545,7 +6541,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -6571,7 +6567,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6594,13 +6590,13 @@
         <v>39</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6651,7 +6647,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -6677,7 +6673,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6700,16 +6696,16 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -6759,7 +6755,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>48</v>
@@ -6771,7 +6767,7 @@
         <v>39</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>39</v>
@@ -6785,7 +6781,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6808,13 +6804,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6865,7 +6861,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -6891,7 +6887,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6920,7 +6916,7 @@
         <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>96</v>
@@ -6973,7 +6969,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -6999,11 +6995,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7025,10 +7021,10 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>96</v>
@@ -7083,7 +7079,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7109,7 +7105,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7135,10 +7131,10 @@
         <v>39</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7189,7 +7185,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7215,7 +7211,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7241,10 +7237,10 @@
         <v>39</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7295,7 +7291,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7321,7 +7317,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7344,13 +7340,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7401,7 +7397,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7413,7 +7409,7 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>39</v>
@@ -7427,7 +7423,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7450,13 +7446,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7507,7 +7503,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -7533,7 +7529,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7562,7 +7558,7 @@
         <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -7615,7 +7611,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -7641,11 +7637,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -7667,10 +7663,10 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>96</v>
@@ -7725,7 +7721,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -7751,7 +7747,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7774,16 +7770,16 @@
         <v>39</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -7833,7 +7829,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>48</v>
@@ -7845,7 +7841,7 @@
         <v>39</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>39</v>
@@ -7859,7 +7855,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7882,13 +7878,13 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7939,7 +7935,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -7965,7 +7961,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7994,7 +7990,7 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>96</v>
@@ -8047,7 +8043,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8073,11 +8069,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8099,10 +8095,10 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>96</v>
@@ -8157,7 +8153,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8183,7 +8179,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8209,10 +8205,10 @@
         <v>39</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8263,7 +8259,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>48</v>
